--- a/data/trans_orig/IP07C07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A4DD1E1-0AE7-4FEE-82C5-379BFD0F9672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DB124CC-E5C8-427B-8E6A-2E109B81CB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{02108DC3-F395-4216-BAEE-3190504F8CBF}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D37C7B88-B8B2-4460-9347-7509A7198515}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,292 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
   </si>
   <si>
     <t>15,2%</t>
@@ -100,45 +382,9 @@
     <t>20,07%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>4,53%</t>
   </si>
   <si>
@@ -160,39 +406,6 @@
     <t>4,52%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>2,98%</t>
   </si>
   <si>
@@ -202,9 +415,6 @@
     <t>7,45%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>1,23%</t>
   </si>
   <si>
@@ -217,129 +427,183 @@
     <t>3,25%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
     <t>19,98%</t>
   </si>
   <si>
@@ -367,33 +631,6 @@
     <t>23,57%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
     <t>0,94%</t>
   </si>
   <si>
@@ -418,33 +655,6 @@
     <t>4,38%</t>
   </si>
   <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
     <t>0,81%</t>
   </si>
   <si>
@@ -463,214 +673,58 @@
     <t>3,3%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
   </si>
   <si>
     <t>20,28%</t>
@@ -700,33 +754,6 @@
     <t>21,6%</t>
   </si>
   <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
     <t>1,39%</t>
   </si>
   <si>
@@ -754,33 +781,6 @@
     <t>3,03%</t>
   </si>
   <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
     <t>1,32%</t>
   </si>
   <si>
@@ -808,6 +808,255 @@
     <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 43,45%)</t>
   </si>
   <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
     <t>26,47%</t>
   </si>
   <si>
@@ -835,30 +1084,6 @@
     <t>30,11%</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
     <t>3,53%</t>
   </si>
   <si>
@@ -886,33 +1111,6 @@
     <t>7,01%</t>
   </si>
   <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
     <t>0,67%</t>
   </si>
   <si>
@@ -931,109 +1129,175 @@
     <t>2,74%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
   </si>
   <si>
     <t>33,02%</t>
@@ -1048,9 +1312,6 @@
     <t>23,28%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
     <t>31,67%</t>
   </si>
   <si>
@@ -1063,30 +1324,6 @@
     <t>33,99%</t>
   </si>
   <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
     <t>2,45%</t>
   </si>
   <si>
@@ -1111,33 +1348,6 @@
     <t>7,95%</t>
   </si>
   <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
     <t>4,46%</t>
   </si>
   <si>
@@ -1153,214 +1363,55 @@
     <t>5,21%</t>
   </si>
   <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
   </si>
   <si>
     <t>26,09%</t>
@@ -1387,33 +1438,6 @@
     <t>26,74%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
     <t>3,5%</t>
   </si>
   <si>
@@ -1438,30 +1462,6 @@
     <t>4,96%</t>
   </si>
   <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
     <t>0,6%</t>
   </si>
   <si>
@@ -1489,21 +1489,267 @@
     <t>Menores según frecuencia de sentirse harto en 2015 (Tasa respuesta: 45,53%)</t>
   </si>
   <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
     <t>15,65%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
     <t>24,15%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>30,88%</t>
-  </si>
-  <si>
     <t>19,82%</t>
   </si>
   <si>
@@ -1513,27 +1759,6 @@
     <t>24,73%</t>
   </si>
   <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
     <t>5,18%</t>
   </si>
   <si>
@@ -1561,33 +1786,6 @@
     <t>10,4%</t>
   </si>
   <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
     <t>1,24%</t>
   </si>
   <si>
@@ -1600,115 +1798,154 @@
     <t>2,82%</t>
   </si>
   <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
   </si>
   <si>
     <t>23,38%</t>
@@ -1738,33 +1975,6 @@
     <t>29,43%</t>
   </si>
   <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
     <t>0,72%</t>
   </si>
   <si>
@@ -1786,39 +1996,9 @@
     <t>1,93%</t>
   </si>
   <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
     <t>1,52%</t>
   </si>
   <si>
@@ -1828,184 +2008,49 @@
     <t>3,73%</t>
   </si>
   <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>19,36%</t>
@@ -2032,30 +2077,6 @@
     <t>23,11%</t>
   </si>
   <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
     <t>3,78%</t>
   </si>
   <si>
@@ -2078,27 +2099,6 @@
   </si>
   <si>
     <t>6,14%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
   </si>
   <si>
     <t>1,04%</t>
@@ -2505,7 +2505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A6CCDD-EE0F-4B42-8204-23A1BDA65680}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927C0731-EA35-4B8C-9ECA-55F1E3458250}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2623,10 +2623,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>13908</v>
+        <v>7769</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2638,10 +2638,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>15648</v>
+        <v>4650</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2653,10 +2653,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>29557</v>
+        <v>12419</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2674,10 +2674,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>20883</v>
+        <v>3914</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2689,10 +2689,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>18294</v>
+        <v>6220</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2704,10 +2704,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>39176</v>
+        <v>10134</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2725,10 +2725,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1334</v>
+        <v>797</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2740,10 +2740,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>3245</v>
+        <v>2472</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2755,10 +2755,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>4579</v>
+        <v>3268</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2776,70 +2776,70 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>52635</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="7">
-        <v>96</v>
-      </c>
-      <c r="I7" s="7">
-        <v>61340</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="7">
-        <v>176</v>
-      </c>
-      <c r="N7" s="7">
-        <v>113976</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2730</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2851,25 +2851,25 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>2730</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,102 +2878,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>91490</v>
+        <v>12480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>98527</v>
+        <v>13342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>294</v>
+        <v>33</v>
       </c>
       <c r="N9" s="7">
-        <v>190018</v>
+        <v>25822</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>15697</v>
+        <v>24688</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>11596</v>
+        <v>19545</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="N10" s="7">
-        <v>27293</v>
+        <v>44233</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,13 +2988,13 @@
         <v>12506</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -3003,13 +3003,13 @@
         <v>11786</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -3018,13 +3018,13 @@
         <v>24292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,49 +3033,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7">
-        <v>802</v>
+        <v>15697</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I12" s="7">
-        <v>616</v>
+        <v>11596</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="N12" s="7">
-        <v>1418</v>
+        <v>27293</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,55 +3084,55 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>24688</v>
+        <v>802</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>19545</v>
+        <v>616</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>44233</v>
+        <v>1418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -3141,13 +3141,13 @@
         <v>597</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3171,13 +3171,13 @@
         <v>597</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3192,13 @@
         <v>54289</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H15" s="7">
         <v>65</v>
@@ -3207,13 +3207,13 @@
         <v>43544</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M15" s="7">
         <v>148</v>
@@ -3222,66 +3222,66 @@
         <v>97833</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D16" s="7">
-        <v>17361</v>
+        <v>52635</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I16" s="7">
-        <v>12369</v>
+        <v>61340</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="N16" s="7">
-        <v>29730</v>
+        <v>113976</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,49 +3290,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7">
-        <v>15404</v>
+        <v>20883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I17" s="7">
-        <v>13094</v>
+        <v>18294</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="N17" s="7">
-        <v>28498</v>
+        <v>39176</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,49 +3341,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D18" s="7">
-        <v>813</v>
+        <v>13908</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I18" s="7">
-        <v>2319</v>
+        <v>15648</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="N18" s="7">
-        <v>3132</v>
+        <v>29557</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,100 +3392,100 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>52628</v>
+        <v>1334</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="H19" s="7">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>48941</v>
+        <v>3245</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="M19" s="7">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>101569</v>
+        <v>4579</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>700</v>
+        <v>2730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>793</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>1493</v>
+        <v>2730</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,102 +3494,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D21" s="7">
-        <v>86906</v>
+        <v>91490</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="I21" s="7">
-        <v>77516</v>
+        <v>98527</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M21" s="7">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c r="N21" s="7">
-        <v>164423</v>
+        <v>190018</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7">
-        <v>797</v>
+        <v>31806</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="I22" s="7">
-        <v>2472</v>
+        <v>26582</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="N22" s="7">
-        <v>3268</v>
+        <v>58388</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,49 +3598,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D23" s="7">
-        <v>3914</v>
+        <v>12963</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H23" s="7">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I23" s="7">
-        <v>6220</v>
+        <v>17316</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="M23" s="7">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="N23" s="7">
-        <v>10134</v>
+        <v>30280</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,49 +3649,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>14191</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>9346</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>23537</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,55 +3700,55 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>7769</v>
+        <v>1291</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1145</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2436</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>4650</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M25" s="7">
-        <v>16</v>
-      </c>
-      <c r="N25" s="7">
-        <v>12419</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -3760,40 +3760,40 @@
         <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>1264</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>1264</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,102 +3802,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="D27" s="7">
-        <v>12480</v>
+        <v>60252</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I27" s="7">
-        <v>13342</v>
+        <v>55653</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="N27" s="7">
-        <v>25822</v>
+        <v>115905</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D28" s="7">
-        <v>14191</v>
+        <v>52628</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>64</v>
+      </c>
+      <c r="I28" s="7">
+        <v>48941</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H28" s="7">
-        <v>16</v>
-      </c>
-      <c r="I28" s="7">
-        <v>9346</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>141</v>
+      </c>
+      <c r="N28" s="7">
+        <v>101569</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="M28" s="7">
-        <v>39</v>
-      </c>
-      <c r="N28" s="7">
-        <v>23537</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,49 +3906,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" s="7">
-        <v>12963</v>
+        <v>15404</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>17</v>
+      </c>
+      <c r="I29" s="7">
+        <v>13094</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H29" s="7">
-        <v>29</v>
-      </c>
-      <c r="I29" s="7">
-        <v>17316</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>39</v>
+      </c>
+      <c r="N29" s="7">
+        <v>28498</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M29" s="7">
-        <v>50</v>
-      </c>
-      <c r="N29" s="7">
-        <v>30280</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,40 +3957,40 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D30" s="7">
-        <v>1291</v>
+        <v>17361</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>16</v>
+      </c>
+      <c r="I30" s="7">
+        <v>12369</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H30" s="7">
-        <v>2</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1145</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>193</v>
       </c>
       <c r="M30" s="7">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="N30" s="7">
-        <v>2436</v>
+        <v>29730</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>194</v>
@@ -4008,76 +4008,76 @@
         <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>31806</v>
+        <v>813</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>197</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2319</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H31" s="7">
-        <v>42</v>
-      </c>
-      <c r="I31" s="7">
-        <v>26582</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>4</v>
+      </c>
+      <c r="N31" s="7">
+        <v>3132</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M31" s="7">
-        <v>91</v>
-      </c>
-      <c r="N31" s="7">
-        <v>58388</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>206</v>
       </c>
       <c r="H32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>1264</v>
+        <v>793</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>207</v>
@@ -4092,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>1264</v>
+        <v>1493</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>209</v>
@@ -4110,49 +4110,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D33" s="7">
-        <v>60252</v>
+        <v>86906</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H33" s="7">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I33" s="7">
-        <v>55653</v>
+        <v>77516</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M33" s="7">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="N33" s="7">
-        <v>115905</v>
+        <v>164423</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,10 +4163,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>94</v>
+        <v>254</v>
       </c>
       <c r="D34" s="7">
-        <v>61954</v>
+        <v>169526</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>211</v>
@@ -4178,10 +4178,10 @@
         <v>213</v>
       </c>
       <c r="H34" s="7">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="I34" s="7">
-        <v>51431</v>
+        <v>161059</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>214</v>
@@ -4193,10 +4193,10 @@
         <v>216</v>
       </c>
       <c r="M34" s="7">
-        <v>172</v>
+        <v>491</v>
       </c>
       <c r="N34" s="7">
-        <v>113385</v>
+        <v>330585</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>217</v>
@@ -4265,10 +4265,10 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D36" s="7">
-        <v>4240</v>
+        <v>61954</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>229</v>
@@ -4280,10 +4280,10 @@
         <v>231</v>
       </c>
       <c r="H36" s="7">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="I36" s="7">
-        <v>7325</v>
+        <v>51431</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>232</v>
@@ -4295,10 +4295,10 @@
         <v>234</v>
       </c>
       <c r="M36" s="7">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="N36" s="7">
-        <v>11565</v>
+        <v>113385</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>235</v>
@@ -4316,10 +4316,10 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>254</v>
+        <v>6</v>
       </c>
       <c r="D37" s="7">
-        <v>169526</v>
+        <v>4240</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>238</v>
@@ -4331,10 +4331,10 @@
         <v>240</v>
       </c>
       <c r="H37" s="7">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="I37" s="7">
-        <v>161059</v>
+        <v>7325</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>241</v>
@@ -4346,10 +4346,10 @@
         <v>243</v>
       </c>
       <c r="M37" s="7">
-        <v>491</v>
+        <v>17</v>
       </c>
       <c r="N37" s="7">
-        <v>330585</v>
+        <v>11565</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>244</v>
@@ -4364,7 +4364,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7">
         <v>6</v>
@@ -4403,7 +4403,7 @@
         <v>6085</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>253</v>
@@ -4424,13 +4424,13 @@
         <v>305417</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H39" s="7">
         <v>429</v>
@@ -4439,13 +4439,13 @@
         <v>288583</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M39" s="7">
         <v>888</v>
@@ -4454,13 +4454,13 @@
         <v>594000</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4481,7 +4481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E54E3EE-37F6-4604-818C-721DFD3BF367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C67DD0-537D-4F51-8943-62FBA17B2EB7}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4599,10 +4599,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>24681</v>
+        <v>8275</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>256</v>
@@ -4614,10 +4614,10 @@
         <v>258</v>
       </c>
       <c r="H4" s="7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>23013</v>
+        <v>5531</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>259</v>
@@ -4629,10 +4629,10 @@
         <v>261</v>
       </c>
       <c r="M4" s="7">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>47695</v>
+        <v>13806</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>262</v>
@@ -4650,49 +4650,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>16274</v>
+        <v>712</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>265</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1630</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H5" s="7">
-        <v>31</v>
-      </c>
-      <c r="I5" s="7">
-        <v>20412</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2342</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M5" s="7">
-        <v>56</v>
-      </c>
-      <c r="N5" s="7">
-        <v>36685</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,49 +4701,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>3292</v>
+        <v>5503</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3354</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H6" s="7">
-        <v>8</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5026</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>10</v>
+      </c>
+      <c r="N6" s="7">
+        <v>8857</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="M6" s="7">
-        <v>13</v>
-      </c>
-      <c r="N6" s="7">
-        <v>8318</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,100 +4752,100 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>48366</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H7" s="7">
-        <v>72</v>
-      </c>
-      <c r="I7" s="7">
-        <v>48101</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="M7" s="7">
-        <v>143</v>
-      </c>
-      <c r="N7" s="7">
-        <v>96468</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
-        <v>625</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
       <c r="I8" s="7">
-        <v>1284</v>
+        <v>760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1909</v>
+        <v>760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>295</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,102 +4854,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>93238</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="I9" s="7">
-        <v>97837</v>
+        <v>11275</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>191075</v>
+        <v>25765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7">
-        <v>10775</v>
+        <v>37069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>11082</v>
+        <v>27333</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M10" s="7">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="N10" s="7">
-        <v>21857</v>
+        <v>64401</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +4964,13 @@
         <v>8325</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -4979,13 +4979,13 @@
         <v>12161</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -4994,13 +4994,13 @@
         <v>20486</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,49 +5009,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>1318</v>
+        <v>10775</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>306</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I12" s="7">
-        <v>916</v>
+        <v>11082</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>315</v>
+        <v>139</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N12" s="7">
-        <v>2233</v>
+        <v>21857</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>318</v>
+        <v>140</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,55 +5060,55 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>37069</v>
+        <v>1318</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>27333</v>
+        <v>916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="M13" s="7">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>64401</v>
+        <v>2233</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -5120,10 +5120,10 @@
         <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5135,10 +5135,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5150,10 +5150,10 @@
         <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5168,13 @@
         <v>57487</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H15" s="7">
         <v>72</v>
@@ -5183,13 +5183,13 @@
         <v>51491</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M15" s="7">
         <v>156</v>
@@ -5198,66 +5198,66 @@
         <v>108977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D16" s="7">
-        <v>29442</v>
+        <v>48366</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="H16" s="7">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I16" s="7">
-        <v>19780</v>
+        <v>48101</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="M16" s="7">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="N16" s="7">
-        <v>49222</v>
+        <v>96468</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,46 +5269,46 @@
         <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>17623</v>
+        <v>16274</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="H17" s="7">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7">
-        <v>19135</v>
+        <v>20412</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M17" s="7">
+        <v>56</v>
+      </c>
+      <c r="N17" s="7">
+        <v>36685</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="M17" s="7">
-        <v>49</v>
-      </c>
-      <c r="N17" s="7">
-        <v>36758</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>346</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,49 +5317,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7">
-        <v>4586</v>
+        <v>24681</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="I18" s="7">
-        <v>2680</v>
+        <v>23013</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="M18" s="7">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="N18" s="7">
-        <v>7266</v>
+        <v>47695</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,100 +5368,100 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>36789</v>
+        <v>3292</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="H19" s="7">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I19" s="7">
-        <v>40132</v>
+        <v>5026</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M19" s="7">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="N19" s="7">
-        <v>76921</v>
+        <v>8318</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>722</v>
+        <v>625</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>357</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>3229</v>
+        <v>1284</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>3951</v>
+        <v>1909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>207</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,102 +5470,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D21" s="7">
-        <v>89163</v>
+        <v>93238</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H21" s="7">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="I21" s="7">
-        <v>84957</v>
+        <v>97837</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M21" s="7">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="N21" s="7">
-        <v>174119</v>
+        <v>191075</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D22" s="7">
-        <v>5503</v>
+        <v>42219</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="I22" s="7">
-        <v>3354</v>
+        <v>31428</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="N22" s="7">
-        <v>8857</v>
+        <v>73648</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,49 +5574,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D23" s="7">
-        <v>712</v>
+        <v>10149</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>32</v>
+        <v>372</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I23" s="7">
-        <v>1630</v>
+        <v>16889</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>32</v>
+        <v>375</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N23" s="7">
-        <v>2342</v>
+        <v>27038</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,49 +5625,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>13994</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>380</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>54</v>
+        <v>381</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>382</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>12046</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>383</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="L24" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M24" s="7">
+        <v>42</v>
+      </c>
+      <c r="N24" s="7">
+        <v>26040</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,76 +5676,76 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>8275</v>
+        <v>2111</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>5</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3218</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>5531</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>8</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5329</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="M25" s="7">
-        <v>15</v>
-      </c>
-      <c r="N25" s="7">
-        <v>13806</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>397</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>760</v>
+        <v>1586</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>398</v>
@@ -5757,16 +5757,16 @@
         <v>399</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>760</v>
+        <v>2194</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>400</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>401</v>
@@ -5778,63 +5778,63 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>69081</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I27" s="7">
-        <v>11275</v>
+        <v>65167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="N27" s="7">
-        <v>25765</v>
+        <v>134248</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D28" s="7">
-        <v>13994</v>
+        <v>36789</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>402</v>
@@ -5846,34 +5846,34 @@
         <v>404</v>
       </c>
       <c r="H28" s="7">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="I28" s="7">
-        <v>12046</v>
+        <v>40132</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>405</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>266</v>
+        <v>406</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M28" s="7">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="N28" s="7">
-        <v>26040</v>
+        <v>76921</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,49 +5882,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D29" s="7">
-        <v>10149</v>
+        <v>17623</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H29" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I29" s="7">
-        <v>16889</v>
+        <v>19135</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M29" s="7">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N29" s="7">
-        <v>27038</v>
+        <v>36758</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,49 +5933,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D30" s="7">
-        <v>2111</v>
+        <v>29442</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H30" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I30" s="7">
-        <v>3218</v>
+        <v>19780</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>123</v>
+        <v>415</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M30" s="7">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="N30" s="7">
-        <v>5329</v>
+        <v>49222</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5984,13 @@
         <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D31" s="7">
-        <v>42219</v>
+        <v>4586</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>427</v>
+        <v>351</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>428</v>
@@ -5999,10 +5999,10 @@
         <v>429</v>
       </c>
       <c r="H31" s="7">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>31428</v>
+        <v>2680</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>430</v>
@@ -6014,10 +6014,10 @@
         <v>432</v>
       </c>
       <c r="M31" s="7">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="N31" s="7">
-        <v>73648</v>
+        <v>7266</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>433</v>
@@ -6026,22 +6026,22 @@
         <v>434</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>132</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>607</v>
+        <v>722</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>435</v>
+        <v>205</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>32</v>
@@ -6050,31 +6050,31 @@
         <v>436</v>
       </c>
       <c r="H32" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32" s="7">
-        <v>1586</v>
+        <v>3229</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>437</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>438</v>
       </c>
       <c r="M32" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32" s="7">
-        <v>2194</v>
+        <v>3951</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>440</v>
@@ -6086,49 +6086,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>122</v>
+      </c>
+      <c r="D33" s="7">
+        <v>89163</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="7">
         <v>109</v>
       </c>
-      <c r="D33" s="7">
-        <v>69081</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>100</v>
-      </c>
       <c r="I33" s="7">
-        <v>65167</v>
+        <v>84957</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M33" s="7">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="N33" s="7">
-        <v>134248</v>
+        <v>174119</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,28 +6139,28 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>122</v>
+        <v>249</v>
       </c>
       <c r="D34" s="7">
-        <v>84396</v>
+        <v>172718</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>218</v>
+      </c>
+      <c r="I34" s="7">
+        <v>152525</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="H34" s="7">
-        <v>98</v>
-      </c>
-      <c r="I34" s="7">
-        <v>69275</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>444</v>
@@ -6169,10 +6169,10 @@
         <v>445</v>
       </c>
       <c r="M34" s="7">
-        <v>220</v>
+        <v>467</v>
       </c>
       <c r="N34" s="7">
-        <v>153671</v>
+        <v>325244</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>446</v>
@@ -6241,28 +6241,28 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="D36" s="7">
-        <v>11307</v>
+        <v>84396</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>458</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>206</v>
+        <v>459</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H36" s="7">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="I36" s="7">
-        <v>11840</v>
+        <v>69275</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>460</v>
+        <v>226</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>461</v>
@@ -6271,10 +6271,10 @@
         <v>462</v>
       </c>
       <c r="M36" s="7">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="N36" s="7">
-        <v>23147</v>
+        <v>153671</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>463</v>
@@ -6292,25 +6292,25 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="D37" s="7">
-        <v>172718</v>
+        <v>11307</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>130</v>
+        <v>466</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>466</v>
+        <v>164</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>467</v>
       </c>
       <c r="H37" s="7">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="I37" s="7">
-        <v>152525</v>
+        <v>11840</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>468</v>
@@ -6322,10 +6322,10 @@
         <v>470</v>
       </c>
       <c r="M37" s="7">
-        <v>467</v>
+        <v>33</v>
       </c>
       <c r="N37" s="7">
-        <v>325244</v>
+        <v>23147</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>471</v>
@@ -6340,7 +6340,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
@@ -6379,7 +6379,7 @@
         <v>8813</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>480</v>
@@ -6400,13 +6400,13 @@
         <v>323458</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H39" s="7">
         <v>442</v>
@@ -6415,13 +6415,13 @@
         <v>310726</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M39" s="7">
         <v>912</v>
@@ -6430,13 +6430,13 @@
         <v>634184</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -6457,7 +6457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9081C45A-91A5-47B4-A440-037D9B13107C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D116D1-EF0C-4A85-9692-240EFBBDA097}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6575,10 +6575,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>16277</v>
+        <v>4360</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>483</v>
@@ -6587,37 +6587,37 @@
         <v>484</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="H4" s="7">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>24158</v>
+        <v>5679</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M4" s="7">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="N4" s="7">
-        <v>40435</v>
+        <v>10039</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>490</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,46 +6626,46 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>31199</v>
+        <v>5393</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>491</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1023</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="H5" s="7">
-        <v>35</v>
-      </c>
-      <c r="I5" s="7">
-        <v>22349</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>8</v>
+      </c>
+      <c r="N5" s="7">
+        <v>6416</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="M5" s="7">
-        <v>79</v>
-      </c>
-      <c r="N5" s="7">
-        <v>53548</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>497</v>
@@ -6677,10 +6677,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>5390</v>
+        <v>3454</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>498</v>
@@ -6689,37 +6689,37 @@
         <v>499</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" s="7">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4194</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="H6" s="7">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7">
-        <v>9130</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>8</v>
+      </c>
+      <c r="N6" s="7">
+        <v>7649</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="M6" s="7">
-        <v>22</v>
-      </c>
-      <c r="N6" s="7">
-        <v>14520</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,100 +6728,100 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>49852</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>804</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>804</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="H7" s="7">
-        <v>64</v>
-      </c>
-      <c r="I7" s="7">
-        <v>43160</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="M7" s="7">
-        <v>136</v>
-      </c>
-      <c r="N7" s="7">
-        <v>93013</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1293</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>516</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1244</v>
+        <v>1023</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>2536</v>
+        <v>1023</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>518</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6830,102 +6830,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>104011</v>
+        <v>13207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>100041</v>
+        <v>12723</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>302</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>204053</v>
+        <v>25930</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>10944</v>
+        <v>25574</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="H10" s="7">
+        <v>43</v>
+      </c>
+      <c r="I10" s="7">
+        <v>30132</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="M10" s="7">
+        <v>76</v>
+      </c>
+      <c r="N10" s="7">
+        <v>55707</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6548</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="M10" s="7">
-        <v>24</v>
-      </c>
-      <c r="N10" s="7">
-        <v>17492</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +6940,13 @@
         <v>16155</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -6955,13 +6955,13 @@
         <v>17377</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>487</v>
+        <v>525</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="M11" s="7">
         <v>45</v>
@@ -6970,13 +6970,13 @@
         <v>33532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6985,49 +6985,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7">
-        <v>4436</v>
+        <v>10944</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="7">
+        <v>10</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6548</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="M12" s="7">
+        <v>24</v>
+      </c>
+      <c r="N12" s="7">
+        <v>17492</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2224</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="M12" s="7">
-        <v>9</v>
-      </c>
-      <c r="N12" s="7">
-        <v>6660</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,55 +7036,55 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>4436</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2224</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>9</v>
+      </c>
+      <c r="N13" s="7">
+        <v>6660</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="H13" s="7">
-        <v>43</v>
-      </c>
-      <c r="I13" s="7">
-        <v>30132</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="M13" s="7">
-        <v>76</v>
-      </c>
-      <c r="N13" s="7">
-        <v>55707</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -7093,13 +7093,13 @@
         <v>727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7111,10 +7111,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -7123,13 +7123,13 @@
         <v>727</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7144,13 +7144,13 @@
         <v>57836</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -7159,13 +7159,13 @@
         <v>56281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -7174,66 +7174,66 @@
         <v>114117</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7">
-        <v>23268</v>
+        <v>49852</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H16" s="7">
+        <v>64</v>
+      </c>
+      <c r="I16" s="7">
+        <v>43160</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="M16" s="7">
+        <v>136</v>
+      </c>
+      <c r="N16" s="7">
+        <v>93013</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="H16" s="7">
-        <v>32</v>
-      </c>
-      <c r="I16" s="7">
-        <v>25029</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="M16" s="7">
-        <v>63</v>
-      </c>
-      <c r="N16" s="7">
-        <v>48297</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,49 +7242,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" s="7">
-        <v>30015</v>
+        <v>31199</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="H17" s="7">
+        <v>35</v>
+      </c>
+      <c r="I17" s="7">
+        <v>22349</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="M17" s="7">
+        <v>79</v>
+      </c>
+      <c r="N17" s="7">
+        <v>53548</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="H17" s="7">
-        <v>34</v>
-      </c>
-      <c r="I17" s="7">
-        <v>26056</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="M17" s="7">
-        <v>76</v>
-      </c>
-      <c r="N17" s="7">
-        <v>56071</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7293,49 +7293,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D18" s="7">
-        <v>2195</v>
+        <v>16277</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>477</v>
+        <v>567</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>575</v>
+        <v>543</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>576</v>
+        <v>459</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I18" s="7">
-        <v>5491</v>
+        <v>24158</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>579</v>
+        <v>525</v>
       </c>
       <c r="M18" s="7">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="N18" s="7">
-        <v>7686</v>
+        <v>40435</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>314</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7344,100 +7344,100 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>42432</v>
+        <v>5390</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="H19" s="7">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I19" s="7">
-        <v>45069</v>
+        <v>9130</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="M19" s="7">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="N19" s="7">
-        <v>87501</v>
+        <v>14520</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1618</v>
+        <v>1293</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>439</v>
+        <v>582</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>591</v>
+        <v>358</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>1467</v>
+        <v>1244</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>81</v>
+        <v>582</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>3085</v>
+        <v>2536</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7446,102 +7446,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D21" s="7">
-        <v>99528</v>
+        <v>104011</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H21" s="7">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I21" s="7">
-        <v>103112</v>
+        <v>100041</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M21" s="7">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="N21" s="7">
-        <v>202640</v>
+        <v>204053</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D22" s="7">
-        <v>3454</v>
+        <v>45602</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>327</v>
+        <v>588</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="I22" s="7">
-        <v>4194</v>
+        <v>35795</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="M22" s="7">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="N22" s="7">
-        <v>7649</v>
+        <v>81397</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7550,49 +7550,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D23" s="7">
-        <v>5393</v>
+        <v>14178</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>77</v>
+        <v>596</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I23" s="7">
-        <v>1023</v>
+        <v>17432</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>32</v>
+        <v>599</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="M23" s="7">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="N23" s="7">
-        <v>6416</v>
+        <v>31610</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7601,49 +7601,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>13665</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>604</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>54</v>
+        <v>605</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>413</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I24" s="7">
-        <v>804</v>
+        <v>14496</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="M24" s="7">
+        <v>41</v>
+      </c>
+      <c r="N24" s="7">
+        <v>28160</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1</v>
-      </c>
-      <c r="N24" s="7">
-        <v>804</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7652,55 +7652,55 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1176</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1572</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="M25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
-        <v>4360</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="N25" s="7">
+        <v>2747</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="H25" s="7">
-        <v>7</v>
-      </c>
-      <c r="I25" s="7">
-        <v>5679</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="M25" s="7">
-        <v>12</v>
-      </c>
-      <c r="N25" s="7">
-        <v>10039</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -7712,40 +7712,40 @@
         <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>616</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>1023</v>
+        <v>615</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>606</v>
+        <v>396</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>1023</v>
+        <v>615</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>539</v>
+        <v>618</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>623</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7754,102 +7754,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>13207</v>
+        <v>74621</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="I27" s="7">
-        <v>12723</v>
+        <v>69909</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N27" s="7">
-        <v>25930</v>
+        <v>144530</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D28" s="7">
-        <v>13665</v>
+        <v>42432</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="H28" s="7">
+        <v>59</v>
+      </c>
+      <c r="I28" s="7">
+        <v>45069</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>116</v>
+      </c>
+      <c r="N28" s="7">
+        <v>87501</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H28" s="7">
-        <v>22</v>
-      </c>
-      <c r="I28" s="7">
-        <v>14496</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="M28" s="7">
-        <v>41</v>
-      </c>
-      <c r="N28" s="7">
-        <v>28160</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7858,49 +7858,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D29" s="7">
-        <v>14178</v>
+        <v>30015</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="H29" s="7">
+        <v>34</v>
+      </c>
+      <c r="I29" s="7">
+        <v>26056</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>76</v>
+      </c>
+      <c r="N29" s="7">
+        <v>56071</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="H29" s="7">
-        <v>28</v>
-      </c>
-      <c r="I29" s="7">
-        <v>17432</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="M29" s="7">
-        <v>47</v>
-      </c>
-      <c r="N29" s="7">
-        <v>31610</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7909,49 +7909,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D30" s="7">
-        <v>1176</v>
+        <v>23268</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="H30" s="7">
+        <v>32</v>
+      </c>
+      <c r="I30" s="7">
+        <v>25029</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="H30" s="7">
-        <v>3</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1572</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>63</v>
+      </c>
+      <c r="N30" s="7">
+        <v>48297</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="M30" s="7">
-        <v>5</v>
-      </c>
-      <c r="N30" s="7">
-        <v>2747</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="P30" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,13 +7960,13 @@
         <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>45602</v>
+        <v>2195</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>644</v>
+        <v>477</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>645</v>
@@ -7975,10 +7975,10 @@
         <v>646</v>
       </c>
       <c r="H31" s="7">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="I31" s="7">
-        <v>35795</v>
+        <v>5491</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>647</v>
@@ -7990,10 +7990,10 @@
         <v>649</v>
       </c>
       <c r="M31" s="7">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="N31" s="7">
-        <v>81397</v>
+        <v>7686</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>650</v>
@@ -8002,58 +8002,58 @@
         <v>651</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>652</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>1618</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>615</v>
+        <v>1467</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3085</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="M32" s="7">
-        <v>1</v>
-      </c>
-      <c r="N32" s="7">
-        <v>615</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,49 +8062,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D33" s="7">
-        <v>74621</v>
+        <v>99528</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H33" s="7">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="I33" s="7">
-        <v>69909</v>
+        <v>103112</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M33" s="7">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="N33" s="7">
-        <v>144530</v>
+        <v>202640</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="D34" s="7">
-        <v>67609</v>
+        <v>167821</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>227</v>
+      </c>
+      <c r="I34" s="7">
+        <v>159836</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>658</v>
-      </c>
-      <c r="H34" s="7">
-        <v>105</v>
-      </c>
-      <c r="I34" s="7">
-        <v>74425</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>659</v>
@@ -8145,19 +8145,19 @@
         <v>660</v>
       </c>
       <c r="M34" s="7">
-        <v>197</v>
+        <v>458</v>
       </c>
       <c r="N34" s="7">
-        <v>142033</v>
+        <v>327657</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>661</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,13 +8172,13 @@
         <v>96940</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>666</v>
       </c>
       <c r="H35" s="7">
         <v>122</v>
@@ -8187,13 +8187,13 @@
         <v>84237</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>667</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>668</v>
       </c>
       <c r="M35" s="7">
         <v>255</v>
@@ -8202,13 +8202,13 @@
         <v>181177</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8217,49 +8217,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D36" s="7">
-        <v>13196</v>
+        <v>67609</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>105</v>
+      </c>
+      <c r="I36" s="7">
+        <v>74425</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="H36" s="7">
-        <v>28</v>
-      </c>
-      <c r="I36" s="7">
-        <v>19221</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>197</v>
+      </c>
+      <c r="N36" s="7">
+        <v>142033</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="M36" s="7">
-        <v>47</v>
-      </c>
-      <c r="N36" s="7">
-        <v>32417</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>678</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8268,13 +8268,13 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c r="D37" s="7">
-        <v>167821</v>
+        <v>13196</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>472</v>
+        <v>679</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>680</v>
@@ -8283,31 +8283,31 @@
         <v>681</v>
       </c>
       <c r="H37" s="7">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="I37" s="7">
-        <v>159836</v>
+        <v>19221</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>47</v>
+      </c>
+      <c r="N37" s="7">
+        <v>32417</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="M37" s="7">
-        <v>458</v>
-      </c>
-      <c r="N37" s="7">
-        <v>327657</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>685</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>686</v>
@@ -8316,7 +8316,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7">
         <v>5</v>
@@ -8328,10 +8328,10 @@
         <v>687</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>594</v>
+        <v>654</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -8346,7 +8346,7 @@
         <v>689</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="M38" s="7">
         <v>11</v>
@@ -8355,7 +8355,7 @@
         <v>7986</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>690</v>
@@ -8376,13 +8376,13 @@
         <v>349203</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H39" s="7">
         <v>488</v>
@@ -8391,13 +8391,13 @@
         <v>342067</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M39" s="7">
         <v>968</v>
@@ -8406,13 +8406,13 @@
         <v>691270</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C07-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D93D065A-BDB4-44AD-89CB-CA327BD1A8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D65AA57-00BD-4281-B323-F555235BC1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AFB415A0-04C9-46F0-8255-3AB334F9EA4B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FEC958C3-917C-44A1-B93C-F28A78FF9BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="689">
   <si>
     <t>Menores según frecuencia de sentirse harto en 2007 (Tasa respuesta: 42,21%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -97,25 +97,25 @@
     <t>6,38%</t>
   </si>
   <si>
-    <t>32,29%</t>
+    <t>34,23%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
   </si>
   <si>
     <t>12,66%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -127,25 +127,25 @@
     <t>11,77%</t>
   </si>
   <si>
-    <t>56,3%</t>
+    <t>59,42%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
   </si>
   <si>
     <t>39,25%</t>
   </si>
   <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -154,40 +154,40 @@
     <t>62,25%</t>
   </si>
   <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
   </si>
   <si>
     <t>34,85%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
   </si>
   <si>
     <t>48,1%</t>
   </si>
   <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>5,6%</t>
+    <t>5,45%</t>
   </si>
   <si>
     <t>2,9%</t>
@@ -196,1936 +196,1915 @@
     <t>0,61%</t>
   </si>
   <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 43,45%)</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
   </si>
   <si>
     <t>35,14%</t>
   </si>
   <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2016 (Tasa respuesta: 45,53%)</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 43,45%)</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
   </si>
   <si>
     <t>34,26%</t>
   </si>
   <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2015 (Tasa respuesta: 45,53%)</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
     <t>19,36%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
+    <t>18,02%</t>
   </si>
   <si>
     <t>20,55%</t>
   </si>
   <si>
-    <t>17,89%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
   </si>
   <si>
     <t>27,76%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
   </si>
   <si>
     <t>26,21%</t>
   </si>
   <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
   </si>
   <si>
     <t>48,06%</t>
   </si>
   <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
+    <t>52,29%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
 </sst>
 </file>
@@ -2537,7 +2516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A80E4E-3BF0-406C-86BF-85B5806DA248}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70B82EE-CB99-47F7-9325-9003AE891936}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3056,7 +3035,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3050,13 @@
         <v>15697</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -3086,13 +3065,13 @@
         <v>11596</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -3101,13 +3080,13 @@
         <v>27293</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3101,13 @@
         <v>12506</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -3137,13 +3116,13 @@
         <v>11786</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3152,13 +3131,13 @@
         <v>24292</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3152,13 @@
         <v>24688</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -3188,13 +3167,13 @@
         <v>19545</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -3203,13 +3182,13 @@
         <v>44233</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,7 +3244,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3277,13 +3256,13 @@
         <v>2730</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3298,7 +3277,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3307,13 +3286,13 @@
         <v>2730</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3307,13 @@
         <v>1334</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -3343,13 +3322,13 @@
         <v>3245</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -3358,13 +3337,13 @@
         <v>4579</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3358,13 @@
         <v>13908</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -3394,13 +3373,13 @@
         <v>15648</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -3409,13 +3388,13 @@
         <v>29557</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3409,13 @@
         <v>20883</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -3445,13 +3424,13 @@
         <v>18294</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -3460,13 +3439,13 @@
         <v>39176</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3460,13 @@
         <v>52635</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -3496,13 +3475,13 @@
         <v>61340</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>176</v>
@@ -3511,13 +3490,13 @@
         <v>113976</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,7 +3552,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3591,7 +3570,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3600,13 +3579,13 @@
         <v>1264</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3615,13 +3594,13 @@
         <v>1264</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3615,13 @@
         <v>1291</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3651,13 +3630,13 @@
         <v>1145</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -3666,13 +3645,13 @@
         <v>2436</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3666,13 @@
         <v>14191</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -3702,13 +3681,13 @@
         <v>9346</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -3717,13 +3696,13 @@
         <v>23537</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3717,13 @@
         <v>12963</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -3753,13 +3732,13 @@
         <v>17316</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -3768,13 +3747,13 @@
         <v>30280</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3768,13 @@
         <v>31806</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -3804,13 +3783,13 @@
         <v>26582</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>91</v>
@@ -3819,13 +3798,13 @@
         <v>58388</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,7 +3860,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3893,13 +3872,13 @@
         <v>700</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -3908,13 +3887,13 @@
         <v>793</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -3923,13 +3902,13 @@
         <v>1493</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,7 +4210,7 @@
         <v>6085</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>216</v>
@@ -4270,10 +4249,10 @@
         <v>221</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M35" s="7">
         <v>17</v>
@@ -4282,13 +4261,13 @@
         <v>11565</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4282,13 @@
         <v>61954</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H36" s="7">
         <v>78</v>
@@ -4318,13 +4297,13 @@
         <v>51431</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M36" s="7">
         <v>172</v>
@@ -4333,13 +4312,13 @@
         <v>113385</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4333,13 @@
         <v>65670</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H37" s="7">
         <v>100</v>
@@ -4369,13 +4348,13 @@
         <v>66710</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M37" s="7">
         <v>199</v>
@@ -4405,13 +4384,13 @@
         <v>169526</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H38" s="7">
         <v>237</v>
@@ -4420,13 +4399,13 @@
         <v>161059</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M38" s="7">
         <v>491</v>
@@ -4435,13 +4414,13 @@
         <v>330585</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,7 +4476,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4518,7 +4497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAE9BC5-994B-4430-BA28-8778882FAAC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0CAFB1-305F-41DF-B907-1D5A33456A60}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4535,7 +4514,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4657,13 +4636,13 @@
         <v>760</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4672,13 +4651,13 @@
         <v>760</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,7 +4693,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4729,7 +4708,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4723,13 @@
         <v>5503</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4759,13 +4738,13 @@
         <v>3354</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -4774,13 +4753,13 @@
         <v>8857</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4774,13 @@
         <v>712</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4810,13 +4789,13 @@
         <v>1630</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4825,13 +4804,13 @@
         <v>2342</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4825,13 @@
         <v>8275</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -4861,13 +4840,13 @@
         <v>5531</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -4876,13 +4855,13 @@
         <v>13806</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,7 +4935,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4971,7 +4950,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4986,7 +4965,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +4980,13 @@
         <v>1318</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>131</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5016,13 +4995,13 @@
         <v>916</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5031,13 +5010,13 @@
         <v>2233</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5031,13 @@
         <v>10775</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -5067,13 +5046,13 @@
         <v>11082</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M12" s="7">
         <v>30</v>
@@ -5082,13 +5061,13 @@
         <v>21857</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5082,13 @@
         <v>8325</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -5118,13 +5097,13 @@
         <v>12161</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -5133,13 +5112,13 @@
         <v>20486</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5133,13 @@
         <v>37069</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -5169,13 +5148,13 @@
         <v>27333</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M14" s="7">
         <v>93</v>
@@ -5184,13 +5163,13 @@
         <v>64401</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,7 +5225,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5258,13 +5237,13 @@
         <v>625</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5273,13 +5252,13 @@
         <v>1284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>320</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>321</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5288,13 +5267,13 @@
         <v>1909</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5288,13 @@
         <v>3292</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -5324,13 +5303,13 @@
         <v>5026</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -5339,13 +5318,13 @@
         <v>8318</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5339,13 @@
         <v>24681</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
@@ -5375,13 +5354,13 @@
         <v>23013</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M18" s="7">
         <v>72</v>
@@ -5390,13 +5369,13 @@
         <v>47695</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5390,13 @@
         <v>16274</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -5426,13 +5405,13 @@
         <v>20412</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -5441,10 +5420,10 @@
         <v>36685</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>349</v>
@@ -5554,7 +5533,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5599,7 +5578,7 @@
         <v>363</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>364</v>
@@ -5701,10 +5680,10 @@
         <v>380</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,13 +5698,13 @@
         <v>10149</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -5734,13 +5713,13 @@
         <v>16889</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -5749,13 +5728,13 @@
         <v>27038</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5749,13 @@
         <v>42219</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H26" s="7">
         <v>48</v>
@@ -5785,13 +5764,13 @@
         <v>31428</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M26" s="7">
         <v>114</v>
@@ -5862,7 +5841,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5874,7 +5853,7 @@
         <v>722</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
@@ -5892,10 +5871,10 @@
         <v>401</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -5904,13 +5883,13 @@
         <v>3951</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5904,13 @@
         <v>4586</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>406</v>
+        <v>138</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -5940,13 +5919,13 @@
         <v>2680</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>409</v>
+        <v>274</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -5955,13 +5934,13 @@
         <v>7266</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,13 +5955,13 @@
         <v>29442</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>414</v>
+        <v>228</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -5991,13 +5970,13 @@
         <v>19780</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -6006,13 +5985,13 @@
         <v>49222</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>419</v>
+        <v>185</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6006,13 @@
         <v>17623</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -6042,13 +6021,13 @@
         <v>19135</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="M31" s="7">
         <v>49</v>
@@ -6057,13 +6036,13 @@
         <v>36758</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,13 +6057,13 @@
         <v>36789</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H32" s="7">
         <v>53</v>
@@ -6093,13 +6072,13 @@
         <v>40132</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M32" s="7">
         <v>102</v>
@@ -6108,13 +6087,13 @@
         <v>76921</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,13 +6161,13 @@
         <v>1954</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
@@ -6197,13 +6176,13 @@
         <v>6859</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>444</v>
+        <v>99</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="M34" s="7">
         <v>12</v>
@@ -6215,10 +6194,10 @@
         <v>218</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6233,13 +6212,13 @@
         <v>11307</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>139</v>
+        <v>443</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H35" s="7">
         <v>17</v>
@@ -6248,13 +6227,13 @@
         <v>11840</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="M35" s="7">
         <v>33</v>
@@ -6263,13 +6242,13 @@
         <v>23147</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>452</v>
+        <v>170</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,13 +6263,13 @@
         <v>84396</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H36" s="7">
         <v>98</v>
@@ -6302,10 +6281,10 @@
         <v>241</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M36" s="7">
         <v>220</v>
@@ -6314,13 +6293,13 @@
         <v>153671</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>462</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,10 +6314,10 @@
         <v>53083</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>183</v>
@@ -6350,13 +6329,13 @@
         <v>70226</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="M37" s="7">
         <v>180</v>
@@ -6365,13 +6344,13 @@
         <v>123310</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,13 +6365,13 @@
         <v>172718</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H38" s="7">
         <v>218</v>
@@ -6401,13 +6380,13 @@
         <v>152525</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="M38" s="7">
         <v>467</v>
@@ -6416,13 +6395,13 @@
         <v>325244</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,7 +6457,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -6499,7 +6478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B02072D-A2B9-4B76-9241-9C9CADD4ACE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10610AA4-89DF-43D1-BCAC-D661D9642F78}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6516,7 +6495,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6638,13 +6617,13 @@
         <v>1023</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6653,13 +6632,13 @@
         <v>1023</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6668,13 @@
         <v>804</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6704,13 +6683,13 @@
         <v>804</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>228</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6725,13 +6704,13 @@
         <v>3454</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>490</v>
+        <v>247</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -6740,13 +6719,13 @@
         <v>4194</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -6755,13 +6734,13 @@
         <v>7649</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,13 +6755,13 @@
         <v>5393</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6791,13 +6770,13 @@
         <v>1023</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -6806,13 +6785,13 @@
         <v>6416</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,13 +6806,13 @@
         <v>4360</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6842,13 +6821,13 @@
         <v>5679</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>502</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -6857,13 +6836,13 @@
         <v>10039</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6931,13 +6910,13 @@
         <v>727</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6952,7 +6931,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6961,13 +6940,13 @@
         <v>727</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6982,13 +6961,13 @@
         <v>4436</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>518</v>
+        <v>425</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -6997,13 +6976,13 @@
         <v>2224</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -7012,13 +6991,13 @@
         <v>6660</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,13 +7012,13 @@
         <v>10944</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -7048,13 +7027,13 @@
         <v>6548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -7063,13 +7042,13 @@
         <v>17492</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7084,13 +7063,13 @@
         <v>16155</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>306</v>
+        <v>529</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -7099,13 +7078,13 @@
         <v>17377</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -7114,13 +7093,13 @@
         <v>33532</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>539</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7114,13 @@
         <v>25574</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -7150,13 +7129,13 @@
         <v>30132</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="M14" s="7">
         <v>76</v>
@@ -7165,13 +7144,13 @@
         <v>55707</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,7 +7206,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7239,13 +7218,13 @@
         <v>1293</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7254,13 +7233,13 @@
         <v>1244</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>552</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -7269,13 +7248,13 @@
         <v>2536</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>554</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,13 +7269,13 @@
         <v>5390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -7305,13 +7284,13 @@
         <v>9130</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>454</v>
+        <v>552</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -7320,13 +7299,13 @@
         <v>14520</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>555</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>561</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7341,13 +7320,13 @@
         <v>16277</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>562</v>
+        <v>422</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>563</v>
+        <v>520</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>564</v>
+        <v>416</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -7356,13 +7335,13 @@
         <v>24158</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>189</v>
+        <v>557</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -7371,13 +7350,13 @@
         <v>40435</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7392,13 +7371,13 @@
         <v>31199</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>570</v>
+        <v>421</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -7407,13 +7386,13 @@
         <v>22349</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="M19" s="7">
         <v>79</v>
@@ -7422,13 +7401,13 @@
         <v>53548</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,13 +7422,13 @@
         <v>49852</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="H20" s="7">
         <v>64</v>
@@ -7458,13 +7437,13 @@
         <v>43160</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="M20" s="7">
         <v>136</v>
@@ -7473,13 +7452,13 @@
         <v>93013</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,7 +7514,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7553,7 +7532,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>587</v>
+        <v>409</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -7568,7 +7547,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -7577,13 +7556,13 @@
         <v>615</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7598,13 +7577,13 @@
         <v>1176</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -7613,13 +7592,13 @@
         <v>1572</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -7631,10 +7610,10 @@
         <v>180</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7649,13 +7628,13 @@
         <v>13665</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -7664,13 +7643,13 @@
         <v>14496</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="M24" s="7">
         <v>41</v>
@@ -7679,13 +7658,13 @@
         <v>28160</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>605</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7700,13 +7679,13 @@
         <v>14178</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>424</v>
+        <v>598</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -7715,13 +7694,13 @@
         <v>17432</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>608</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -7730,13 +7709,13 @@
         <v>31610</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,13 +7730,13 @@
         <v>45602</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
@@ -7766,13 +7745,13 @@
         <v>35795</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="M26" s="7">
         <v>118</v>
@@ -7781,13 +7760,13 @@
         <v>81397</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>261</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7843,7 +7822,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7861,7 +7840,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -7876,7 +7855,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -7885,13 +7864,13 @@
         <v>3085</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>211</v>
+        <v>615</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7906,13 +7885,13 @@
         <v>2195</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>213</v>
+        <v>617</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -7921,13 +7900,13 @@
         <v>5491</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -7936,13 +7915,13 @@
         <v>7686</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,13 +7936,13 @@
         <v>23268</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
@@ -7972,13 +7951,13 @@
         <v>25029</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="M30" s="7">
         <v>63</v>
@@ -7987,13 +7966,13 @@
         <v>48297</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>638</v>
+        <v>188</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,13 +7987,13 @@
         <v>30015</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="H31" s="7">
         <v>34</v>
@@ -8023,13 +8002,13 @@
         <v>26056</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="M31" s="7">
         <v>76</v>
@@ -8038,13 +8017,13 @@
         <v>56071</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,13 +8038,13 @@
         <v>42432</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>477</v>
+        <v>644</v>
       </c>
       <c r="H32" s="7">
         <v>59</v>
@@ -8074,13 +8053,13 @@
         <v>45069</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>582</v>
+        <v>646</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="M32" s="7">
         <v>116</v>
@@ -8089,13 +8068,13 @@
         <v>87501</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>653</v>
+        <v>22</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8163,13 +8142,13 @@
         <v>3637</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>656</v>
+        <v>99</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>92</v>
+        <v>615</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>657</v>
+        <v>330</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -8178,13 +8157,13 @@
         <v>4348</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>181</v>
+        <v>651</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="M34" s="7">
         <v>11</v>
@@ -8193,13 +8172,13 @@
         <v>7986</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,13 +8193,13 @@
         <v>13196</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>552</v>
+        <v>656</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>287</v>
+        <v>657</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H35" s="7">
         <v>28</v>
@@ -8229,13 +8208,13 @@
         <v>19221</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="M35" s="7">
         <v>47</v>
@@ -8244,13 +8223,13 @@
         <v>32417</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8265,13 +8244,13 @@
         <v>67609</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H36" s="7">
         <v>105</v>
@@ -8280,13 +8259,13 @@
         <v>74425</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>675</v>
+        <v>197</v>
       </c>
       <c r="M36" s="7">
         <v>197</v>
@@ -8295,13 +8274,13 @@
         <v>142033</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>642</v>
+        <v>672</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,13 +8295,13 @@
         <v>96940</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="H37" s="7">
         <v>122</v>
@@ -8331,13 +8310,13 @@
         <v>84237</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="M37" s="7">
         <v>255</v>
@@ -8346,13 +8325,13 @@
         <v>181177</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,13 +8346,13 @@
         <v>167821</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>688</v>
+        <v>166</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="H38" s="7">
         <v>227</v>
@@ -8382,13 +8361,13 @@
         <v>159836</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="M38" s="7">
         <v>458</v>
@@ -8397,13 +8376,13 @@
         <v>327657</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>693</v>
+        <v>398</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8459,7 +8438,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
